--- a/Results/results_women.xlsx
+++ b/Results/results_women.xlsx
@@ -409,22 +409,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.86224068062758</v>
+        <v>2.860461381038202</v>
       </c>
       <c r="D2">
-        <v>15.9845661732795</v>
+        <v>15.99302765733131</v>
       </c>
       <c r="E2">
-        <v>2.989331006806024</v>
+        <v>2.984030474818697</v>
       </c>
       <c r="F2">
-        <v>2.063807100988734</v>
+        <v>2.050004649001905</v>
       </c>
       <c r="G2">
-        <v>3.71822457858969</v>
+        <v>3.682990585644517</v>
       </c>
       <c r="H2">
-        <v>27.61816954029153</v>
+        <v>27.57051474783463</v>
       </c>
     </row>
     <row r="3">
@@ -437,22 +437,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>4.512126884171546</v>
+        <v>4.514746097148066</v>
       </c>
       <c r="D3">
-        <v>16.53067230106681</v>
+        <v>16.53916365872576</v>
       </c>
       <c r="E3">
-        <v>1.928271991790873</v>
+        <v>1.913302377929095</v>
       </c>
       <c r="F3">
-        <v>4.414264958908165</v>
+        <v>4.413063653873156</v>
       </c>
       <c r="G3">
-        <v>4.774975578120601</v>
+        <v>4.754242873000782</v>
       </c>
       <c r="H3">
-        <v>32.16031171405799</v>
+        <v>32.13451866067686</v>
       </c>
     </row>
     <row r="4">
@@ -465,22 +465,22 @@
         </is>
       </c>
       <c r="C4">
-        <v>7.54619490440963</v>
+        <v>7.548704016121698</v>
       </c>
       <c r="D4">
-        <v>16.06532392762769</v>
+        <v>16.07401222490661</v>
       </c>
       <c r="E4">
-        <v>1.275242914921388</v>
+        <v>1.272007460608741</v>
       </c>
       <c r="F4">
-        <v>6.292296107855897</v>
+        <v>6.275224935914857</v>
       </c>
       <c r="G4">
-        <v>4.710716130719122</v>
+        <v>4.704909838082013</v>
       </c>
       <c r="H4">
-        <v>35.88977398553373</v>
+        <v>35.87485847563391</v>
       </c>
     </row>
     <row r="5">
@@ -493,22 +493,22 @@
         </is>
       </c>
       <c r="C5">
-        <v>2.106877658319765</v>
+        <v>2.108977561824382</v>
       </c>
       <c r="D5">
-        <v>15.90358351339625</v>
+        <v>15.89871350328061</v>
       </c>
       <c r="E5">
-        <v>3.163655858024212</v>
+        <v>3.131533570470598</v>
       </c>
       <c r="F5">
-        <v>1.905042529498288</v>
+        <v>1.912260144828285</v>
       </c>
       <c r="G5">
-        <v>3.729590670818177</v>
+        <v>3.727828575685083</v>
       </c>
       <c r="H5">
-        <v>26.8087502300567</v>
+        <v>26.77931335608895</v>
       </c>
     </row>
     <row r="6">
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.368359440626639</v>
+        <v>3.373517242612782</v>
       </c>
       <c r="D6">
-        <v>16.98647349823768</v>
+        <v>16.97781132775818</v>
       </c>
       <c r="E6">
-        <v>2.297584931196435</v>
+        <v>2.259896794268828</v>
       </c>
       <c r="F6">
-        <v>3.666653498632952</v>
+        <v>3.684442760960605</v>
       </c>
       <c r="G6">
-        <v>4.639030848306578</v>
+        <v>4.651326836305295</v>
       </c>
       <c r="H6">
-        <v>30.95810221700028</v>
+        <v>30.94699496190569</v>
       </c>
     </row>
     <row r="7">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="C7">
-        <v>5.757817629686376</v>
+        <v>5.76163892911005</v>
       </c>
       <c r="D7">
-        <v>16.8422486686148</v>
+        <v>16.8267756289517</v>
       </c>
       <c r="E7">
-        <v>1.451849620243345</v>
+        <v>1.435972371366783</v>
       </c>
       <c r="F7">
-        <v>5.546103573738846</v>
+        <v>5.554879653671966</v>
       </c>
       <c r="G7">
-        <v>5.115524675381766</v>
+        <v>5.136801510576634</v>
       </c>
       <c r="H7">
-        <v>34.71354416766513</v>
+        <v>34.71606809367714</v>
       </c>
     </row>
     <row r="8">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.37180782872987</v>
+        <v>2.367327375676373</v>
       </c>
       <c r="D8">
-        <v>18.3118390527186</v>
+        <v>18.31797105445999</v>
       </c>
       <c r="E8">
-        <v>5.316484475859724</v>
+        <v>5.349709923656052</v>
       </c>
       <c r="F8">
-        <v>2.378528543065917</v>
+        <v>2.351119530511808</v>
       </c>
       <c r="G8">
-        <v>4.483119562730479</v>
+        <v>4.443672951875615</v>
       </c>
       <c r="H8">
-        <v>32.86177946310459</v>
+        <v>32.82980083617984</v>
       </c>
     </row>
     <row r="9">
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="C9">
-        <v>3.645674459880865</v>
+        <v>3.643131942561707</v>
       </c>
       <c r="D9">
-        <v>19.12036011360855</v>
+        <v>19.13816244319345</v>
       </c>
       <c r="E9">
-        <v>3.696912724799383</v>
+        <v>3.706238676419586</v>
       </c>
       <c r="F9">
-        <v>4.260587247344589</v>
+        <v>4.22539330091966</v>
       </c>
       <c r="G9">
-        <v>5.414692295522275</v>
+        <v>5.396128646158712</v>
       </c>
       <c r="H9">
-        <v>36.13822684115566</v>
+        <v>36.10905500925312</v>
       </c>
     </row>
     <row r="10">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="C10">
-        <v>6.02887532811059</v>
+        <v>6.024845510036369</v>
       </c>
       <c r="D10">
-        <v>18.53644813093158</v>
+        <v>18.56090573791954</v>
       </c>
       <c r="E10">
-        <v>2.788091436044133</v>
+        <v>2.822179110313762</v>
       </c>
       <c r="F10">
-        <v>6.10769586503401</v>
+        <v>6.034896197785256</v>
       </c>
       <c r="G10">
-        <v>5.538400755993638</v>
+        <v>5.532599140609939</v>
       </c>
       <c r="H10">
-        <v>38.99951151611395</v>
+        <v>38.97542569666486</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_women.xlsx
+++ b/Results/results_women.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.5%" sheetId="2" r:id="rId2"/>
+    <sheet name="97.5%" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +362,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>education</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>retired.healthy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>retired.unhealthy</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>not.working</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>working.healthy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>working.unhealthy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -401,254 +408,1796 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C2">
-        <v>2.860461381038202</v>
-      </c>
       <c r="D2">
-        <v>15.99302765733131</v>
+        <v>3.114752591994078</v>
       </c>
       <c r="E2">
-        <v>2.984030474818697</v>
+        <v>15.6293608354855</v>
       </c>
       <c r="F2">
-        <v>2.050004649001905</v>
+        <v>4.679108118379133</v>
       </c>
       <c r="G2">
-        <v>3.682990585644517</v>
+        <v>2.15217650513706</v>
       </c>
       <c r="H2">
-        <v>27.57051474783463</v>
+        <v>4.005170401418873</v>
+      </c>
+      <c r="I2">
+        <v>29.58056845241465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C3">
-        <v>4.514746097148066</v>
-      </c>
       <c r="D3">
-        <v>16.53916365872576</v>
+        <v>4.59100125392512</v>
       </c>
       <c r="E3">
-        <v>1.913302377929095</v>
+        <v>16.92494064244256</v>
       </c>
       <c r="F3">
-        <v>4.413063653873156</v>
+        <v>2.744877049424079</v>
       </c>
       <c r="G3">
-        <v>4.754242873000782</v>
+        <v>3.70207470685151</v>
       </c>
       <c r="H3">
-        <v>32.13451866067686</v>
+        <v>5.269322722486272</v>
+      </c>
+      <c r="I3">
+        <v>33.23221637512954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C4">
-        <v>7.548704016121698</v>
-      </c>
       <c r="D4">
-        <v>16.07401222490661</v>
+        <v>6.961394702993854</v>
       </c>
       <c r="E4">
-        <v>1.272007460608741</v>
+        <v>16.56540257875935</v>
       </c>
       <c r="F4">
-        <v>6.275224935914857</v>
+        <v>1.512679759244827</v>
       </c>
       <c r="G4">
-        <v>4.704909838082013</v>
+        <v>5.32971869640652</v>
       </c>
       <c r="H4">
-        <v>35.87485847563391</v>
+        <v>4.935876303624809</v>
+      </c>
+      <c r="I4">
+        <v>35.30507204102936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C5">
-        <v>2.108977561824382</v>
-      </c>
       <c r="D5">
-        <v>15.89871350328061</v>
+        <v>2.41312828602355</v>
       </c>
       <c r="E5">
-        <v>3.131533570470598</v>
+        <v>15.07772732178488</v>
       </c>
       <c r="F5">
-        <v>1.912260144828285</v>
+        <v>4.2353098050501</v>
       </c>
       <c r="G5">
-        <v>3.727828575685083</v>
+        <v>2.223967686398681</v>
       </c>
       <c r="H5">
-        <v>26.77931335608895</v>
+        <v>3.778997356280666</v>
+      </c>
+      <c r="I5">
+        <v>27.72913045553787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C6">
-        <v>3.373517242612782</v>
-      </c>
       <c r="D6">
-        <v>16.97781132775818</v>
+        <v>3.578035319214357</v>
       </c>
       <c r="E6">
-        <v>2.259896794268828</v>
+        <v>16.5925085322635</v>
       </c>
       <c r="F6">
-        <v>3.684442760960605</v>
+        <v>2.496525181203675</v>
       </c>
       <c r="G6">
-        <v>4.651326836305295</v>
+        <v>3.667672759955269</v>
       </c>
       <c r="H6">
-        <v>30.94699496190569</v>
+        <v>5.140206473659771</v>
+      </c>
+      <c r="I6">
+        <v>31.47494826629657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C7">
-        <v>5.76163892911005</v>
-      </c>
       <c r="D7">
-        <v>16.8267756289517</v>
+        <v>5.466824556724272</v>
       </c>
       <c r="E7">
-        <v>1.435972371366783</v>
+        <v>16.48523683081492</v>
       </c>
       <c r="F7">
-        <v>5.554879653671966</v>
+        <v>1.246554352735216</v>
       </c>
       <c r="G7">
-        <v>5.136801510576634</v>
+        <v>5.311335699045443</v>
       </c>
       <c r="H7">
-        <v>34.71606809367714</v>
+        <v>5.077132378318845</v>
+      </c>
+      <c r="I7">
+        <v>33.5870838176387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C8">
-        <v>2.367327375676373</v>
-      </c>
       <c r="D8">
-        <v>18.31797105445999</v>
+        <v>3.075006128505742</v>
       </c>
       <c r="E8">
-        <v>5.349709923656052</v>
+        <v>16.96881751839949</v>
       </c>
       <c r="F8">
-        <v>2.351119530511808</v>
+        <v>6.827216508983469</v>
       </c>
       <c r="G8">
-        <v>4.443672951875615</v>
+        <v>1.924898293515598</v>
       </c>
       <c r="H8">
-        <v>32.82980083617984</v>
+        <v>3.487070073849408</v>
+      </c>
+      <c r="I8">
+        <v>32.28300852325371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C9">
-        <v>3.643131942561707</v>
-      </c>
       <c r="D9">
-        <v>19.13816244319345</v>
+        <v>4.540330021282277</v>
       </c>
       <c r="E9">
-        <v>3.706238676419586</v>
+        <v>18.29013259387288</v>
       </c>
       <c r="F9">
-        <v>4.22539330091966</v>
+        <v>4.087622484367251</v>
       </c>
       <c r="G9">
-        <v>5.396128646158712</v>
+        <v>3.562643526100538</v>
       </c>
       <c r="H9">
-        <v>36.10905500925312</v>
+        <v>5.069389789814505</v>
+      </c>
+      <c r="I9">
+        <v>35.55011841543745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>6.857709710278382</v>
+      </c>
+      <c r="E10">
+        <v>17.959392547583</v>
+      </c>
+      <c r="F10">
+        <v>2.372079328400755</v>
+      </c>
+      <c r="G10">
+        <v>5.037678718863734</v>
+      </c>
+      <c r="H10">
+        <v>5.111397678278724</v>
+      </c>
+      <c r="I10">
+        <v>37.3382579834046</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>2.860461381038202</v>
+      </c>
+      <c r="E11">
+        <v>15.99302765733131</v>
+      </c>
+      <c r="F11">
+        <v>2.984030474818697</v>
+      </c>
+      <c r="G11">
+        <v>2.050004649001905</v>
+      </c>
+      <c r="H11">
+        <v>3.682990585644517</v>
+      </c>
+      <c r="I11">
+        <v>27.57051474783463</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4.514746097148066</v>
+      </c>
+      <c r="E12">
+        <v>16.53916365872576</v>
+      </c>
+      <c r="F12">
+        <v>1.913302377929095</v>
+      </c>
+      <c r="G12">
+        <v>4.413063653873156</v>
+      </c>
+      <c r="H12">
+        <v>4.754242873000782</v>
+      </c>
+      <c r="I12">
+        <v>32.13451866067686</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>7.548704016121698</v>
+      </c>
+      <c r="E13">
+        <v>16.07401222490661</v>
+      </c>
+      <c r="F13">
+        <v>1.272007460608741</v>
+      </c>
+      <c r="G13">
+        <v>6.275224935914857</v>
+      </c>
+      <c r="H13">
+        <v>4.704909838082013</v>
+      </c>
+      <c r="I13">
+        <v>35.87485847563391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>2.108977561824382</v>
+      </c>
+      <c r="E14">
+        <v>15.89871350328061</v>
+      </c>
+      <c r="F14">
+        <v>3.131533570470598</v>
+      </c>
+      <c r="G14">
+        <v>1.912260144828285</v>
+      </c>
+      <c r="H14">
+        <v>3.727828575685083</v>
+      </c>
+      <c r="I14">
+        <v>26.77931335608895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>3.373517242612782</v>
+      </c>
+      <c r="E15">
+        <v>16.97781132775818</v>
+      </c>
+      <c r="F15">
+        <v>2.259896794268828</v>
+      </c>
+      <c r="G15">
+        <v>3.684442760960605</v>
+      </c>
+      <c r="H15">
+        <v>4.651326836305295</v>
+      </c>
+      <c r="I15">
+        <v>30.94699496190569</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>5.76163892911005</v>
+      </c>
+      <c r="E16">
+        <v>16.8267756289517</v>
+      </c>
+      <c r="F16">
+        <v>1.435972371366783</v>
+      </c>
+      <c r="G16">
+        <v>5.554879653671966</v>
+      </c>
+      <c r="H16">
+        <v>5.136801510576634</v>
+      </c>
+      <c r="I16">
+        <v>34.71606809367714</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2.367327375676373</v>
+      </c>
+      <c r="E17">
+        <v>18.31797105445999</v>
+      </c>
+      <c r="F17">
+        <v>5.349709923656052</v>
+      </c>
+      <c r="G17">
+        <v>2.351119530511808</v>
+      </c>
+      <c r="H17">
+        <v>4.443672951875615</v>
+      </c>
+      <c r="I17">
+        <v>32.82980083617984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>3.643131942561707</v>
+      </c>
+      <c r="E18">
+        <v>19.13816244319345</v>
+      </c>
+      <c r="F18">
+        <v>3.706238676419586</v>
+      </c>
+      <c r="G18">
+        <v>4.22539330091966</v>
+      </c>
+      <c r="H18">
+        <v>5.396128646158712</v>
+      </c>
+      <c r="I18">
+        <v>36.10905500925312</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>6.024845510036369</v>
       </c>
+      <c r="E19">
+        <v>18.56090573791954</v>
+      </c>
+      <c r="F19">
+        <v>2.822179110313762</v>
+      </c>
+      <c r="G19">
+        <v>6.034896197785256</v>
+      </c>
+      <c r="H19">
+        <v>5.532599140609939</v>
+      </c>
+      <c r="I19">
+        <v>38.97542569666486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>retired.healthy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>retired.unhealthy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>not.working</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>working.healthy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>working.unhealthy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>2.881704959258561</v>
+      </c>
+      <c r="E2">
+        <v>15.12426433512188</v>
+      </c>
+      <c r="F2">
+        <v>4.329108293765319</v>
+      </c>
+      <c r="G2">
+        <v>1.90647075109396</v>
+      </c>
+      <c r="H2">
+        <v>3.702484003250018</v>
+      </c>
+      <c r="I2">
+        <v>28.94894615750812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>4.399154139288854</v>
+      </c>
+      <c r="E3">
+        <v>16.50903625945827</v>
+      </c>
+      <c r="F3">
+        <v>2.577570887685192</v>
+      </c>
+      <c r="G3">
+        <v>3.531396572470415</v>
+      </c>
+      <c r="H3">
+        <v>5.025584589221638</v>
+      </c>
+      <c r="I3">
+        <v>32.80604409457742</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>6.422231509450297</v>
+      </c>
+      <c r="E4">
+        <v>15.73602054632669</v>
+      </c>
+      <c r="F4">
+        <v>1.307450457749144</v>
+      </c>
+      <c r="G4">
+        <v>4.986522453645011</v>
+      </c>
+      <c r="H4">
+        <v>4.611955833651972</v>
+      </c>
+      <c r="I4">
+        <v>34.40824417454388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>2.130536315327221</v>
+      </c>
+      <c r="E5">
+        <v>14.25989722412356</v>
+      </c>
+      <c r="F5">
+        <v>3.825553836951037</v>
+      </c>
+      <c r="G5">
+        <v>1.904595908609785</v>
+      </c>
+      <c r="H5">
+        <v>3.387819187021312</v>
+      </c>
+      <c r="I5">
+        <v>26.77029185809853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>3.194700946028306</v>
+      </c>
+      <c r="E6">
+        <v>15.72271279469175</v>
+      </c>
+      <c r="F6">
+        <v>2.254956895351267</v>
+      </c>
+      <c r="G6">
+        <v>3.304512752408061</v>
+      </c>
+      <c r="H6">
+        <v>4.684065858226337</v>
+      </c>
+      <c r="I6">
+        <v>30.51433666718376</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>4.767941678045521</v>
+      </c>
+      <c r="E7">
+        <v>15.40936116756117</v>
+      </c>
+      <c r="F7">
+        <v>1.035189281140461</v>
+      </c>
+      <c r="G7">
+        <v>4.735066933285065</v>
+      </c>
+      <c r="H7">
+        <v>4.562597517799866</v>
+      </c>
+      <c r="I7">
+        <v>32.27350012018552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>2.662039326289463</v>
+      </c>
+      <c r="E8">
+        <v>15.8358893535934</v>
+      </c>
+      <c r="F8">
+        <v>6.365025467480148</v>
+      </c>
+      <c r="G8">
+        <v>1.673466348165403</v>
+      </c>
+      <c r="H8">
+        <v>3.057605285223204</v>
+      </c>
+      <c r="I8">
+        <v>31.12452969591728</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>3.879095853316815</v>
+      </c>
+      <c r="E9">
+        <v>17.1366299245119</v>
+      </c>
+      <c r="F9">
+        <v>3.600992727605248</v>
+      </c>
+      <c r="G9">
+        <v>3.151685508679889</v>
+      </c>
+      <c r="H9">
+        <v>4.481930608831657</v>
+      </c>
+      <c r="I9">
+        <v>34.33387553022462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
       <c r="D10">
-        <v>18.56090573791954</v>
+        <v>5.817192093720071</v>
       </c>
       <c r="E10">
-        <v>2.822179110313762</v>
+        <v>16.63674445089269</v>
       </c>
       <c r="F10">
-        <v>6.034896197785256</v>
+        <v>1.945914382470548</v>
       </c>
       <c r="G10">
-        <v>5.532599140609939</v>
+        <v>4.21563538794209</v>
       </c>
       <c r="H10">
-        <v>38.97542569666486</v>
+        <v>4.349550811234604</v>
+      </c>
+      <c r="I10">
+        <v>35.81680355281813</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>2.552058668805873</v>
+      </c>
+      <c r="E11">
+        <v>15.17398630762915</v>
+      </c>
+      <c r="F11">
+        <v>2.689837592293817</v>
+      </c>
+      <c r="G11">
+        <v>1.754468294136203</v>
+      </c>
+      <c r="H11">
+        <v>3.223854740958806</v>
+      </c>
+      <c r="I11">
+        <v>26.49690670271754</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4.24107508479877</v>
+      </c>
+      <c r="E12">
+        <v>16.03061192335266</v>
+      </c>
+      <c r="F12">
+        <v>1.746559011583139</v>
+      </c>
+      <c r="G12">
+        <v>4.102285043075331</v>
+      </c>
+      <c r="H12">
+        <v>4.49490222777869</v>
+      </c>
+      <c r="I12">
+        <v>31.58482373211452</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>7.040982624924308</v>
+      </c>
+      <c r="E13">
+        <v>15.50353389849117</v>
+      </c>
+      <c r="F13">
+        <v>1.127625430489201</v>
+      </c>
+      <c r="G13">
+        <v>5.877624415313916</v>
+      </c>
+      <c r="H13">
+        <v>4.348957038136498</v>
+      </c>
+      <c r="I13">
+        <v>35.13582165413423</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>1.873703744963369</v>
+      </c>
+      <c r="E14">
+        <v>14.92973109905123</v>
+      </c>
+      <c r="F14">
+        <v>2.800956459463638</v>
+      </c>
+      <c r="G14">
+        <v>1.65018663932508</v>
+      </c>
+      <c r="H14">
+        <v>3.285935891673336</v>
+      </c>
+      <c r="I14">
+        <v>25.76550918293757</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>3.03964237476155</v>
+      </c>
+      <c r="E15">
+        <v>16.21939947536463</v>
+      </c>
+      <c r="F15">
+        <v>2.027733712658302</v>
+      </c>
+      <c r="G15">
+        <v>3.384211977746155</v>
+      </c>
+      <c r="H15">
+        <v>4.312580130299027</v>
+      </c>
+      <c r="I15">
+        <v>30.03487653142022</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>5.107512249024937</v>
+      </c>
+      <c r="E16">
+        <v>15.73201155190387</v>
+      </c>
+      <c r="F16">
+        <v>1.227595448065269</v>
+      </c>
+      <c r="G16">
+        <v>5.064147473971227</v>
+      </c>
+      <c r="H16">
+        <v>4.751481504140052</v>
+      </c>
+      <c r="I16">
+        <v>33.6756848673475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2.074629202829364</v>
+      </c>
+      <c r="E17">
+        <v>17.29560111872772</v>
+      </c>
+      <c r="F17">
+        <v>4.984869029304573</v>
+      </c>
+      <c r="G17">
+        <v>2.018936885854336</v>
+      </c>
+      <c r="H17">
+        <v>3.985869444904757</v>
+      </c>
+      <c r="I17">
+        <v>31.66065721393277</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>3.189750664214602</v>
+      </c>
+      <c r="E18">
+        <v>17.97876097088789</v>
+      </c>
+      <c r="F18">
+        <v>3.324889004977077</v>
+      </c>
+      <c r="G18">
+        <v>3.759499338474347</v>
+      </c>
+      <c r="H18">
+        <v>4.959550190188788</v>
+      </c>
+      <c r="I18">
+        <v>34.94296188889093</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>5.227950985328929</v>
+      </c>
+      <c r="E19">
+        <v>17.38491812947199</v>
+      </c>
+      <c r="F19">
+        <v>2.358867254208697</v>
+      </c>
+      <c r="G19">
+        <v>5.341076791242442</v>
+      </c>
+      <c r="H19">
+        <v>4.949571360090346</v>
+      </c>
+      <c r="I19">
+        <v>37.94987610839173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>retired.healthy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>retired.unhealthy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>not.working</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>working.healthy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>working.unhealthy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>3.368799150845607</v>
+      </c>
+      <c r="E2">
+        <v>16.23043571100228</v>
+      </c>
+      <c r="F2">
+        <v>4.983730401926095</v>
+      </c>
+      <c r="G2">
+        <v>2.406007983953721</v>
+      </c>
+      <c r="H2">
+        <v>4.394992479272608</v>
+      </c>
+      <c r="I2">
+        <v>30.22091068589528</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>4.82919136222044</v>
+      </c>
+      <c r="E3">
+        <v>17.33166980833169</v>
+      </c>
+      <c r="F3">
+        <v>2.926470675393888</v>
+      </c>
+      <c r="G3">
+        <v>3.898976827446118</v>
+      </c>
+      <c r="H3">
+        <v>5.505087371778046</v>
+      </c>
+      <c r="I3">
+        <v>33.72119987955217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>7.513098187101814</v>
+      </c>
+      <c r="E4">
+        <v>17.36939500059205</v>
+      </c>
+      <c r="F4">
+        <v>1.74739540565452</v>
+      </c>
+      <c r="G4">
+        <v>5.721198352024855</v>
+      </c>
+      <c r="H4">
+        <v>5.30964086768559</v>
+      </c>
+      <c r="I4">
+        <v>36.17607120557693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>2.656947096345381</v>
+      </c>
+      <c r="E5">
+        <v>15.83189424938435</v>
+      </c>
+      <c r="F5">
+        <v>4.712747243891424</v>
+      </c>
+      <c r="G5">
+        <v>2.527968259649742</v>
+      </c>
+      <c r="H5">
+        <v>4.147256727864264</v>
+      </c>
+      <c r="I5">
+        <v>28.4585335063877</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>3.918834084008654</v>
+      </c>
+      <c r="E6">
+        <v>17.4124069230391</v>
+      </c>
+      <c r="F6">
+        <v>2.774488873357089</v>
+      </c>
+      <c r="G6">
+        <v>4.012344386962186</v>
+      </c>
+      <c r="H6">
+        <v>5.551602190904542</v>
+      </c>
+      <c r="I6">
+        <v>32.51667984491404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>6.015446519976386</v>
+      </c>
+      <c r="E7">
+        <v>17.59454771555662</v>
+      </c>
+      <c r="F7">
+        <v>1.494437555412192</v>
+      </c>
+      <c r="G7">
+        <v>5.833455535401767</v>
+      </c>
+      <c r="H7">
+        <v>5.658450667936465</v>
+      </c>
+      <c r="I7">
+        <v>34.53523333900141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>3.516056925186018</v>
+      </c>
+      <c r="E8">
+        <v>18.05247822438483</v>
+      </c>
+      <c r="F8">
+        <v>7.344217043110251</v>
+      </c>
+      <c r="G8">
+        <v>2.226362201895873</v>
+      </c>
+      <c r="H8">
+        <v>3.921015873868918</v>
+      </c>
+      <c r="I8">
+        <v>33.57022066527396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>5.25317317664747</v>
+      </c>
+      <c r="E9">
+        <v>19.53955333548691</v>
+      </c>
+      <c r="F9">
+        <v>4.525245507219719</v>
+      </c>
+      <c r="G9">
+        <v>4.021437639534013</v>
+      </c>
+      <c r="H9">
+        <v>5.671720394890674</v>
+      </c>
+      <c r="I9">
+        <v>36.80612178251383</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>7.875407016398224</v>
+      </c>
+      <c r="E10">
+        <v>19.25450968075263</v>
+      </c>
+      <c r="F10">
+        <v>2.886438688872758</v>
+      </c>
+      <c r="G10">
+        <v>5.796070933875359</v>
+      </c>
+      <c r="H10">
+        <v>5.776486392379889</v>
+      </c>
+      <c r="I10">
+        <v>38.64882644647759</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>3.173759157638106</v>
+      </c>
+      <c r="E11">
+        <v>16.80993133955829</v>
+      </c>
+      <c r="F11">
+        <v>3.320477225436032</v>
+      </c>
+      <c r="G11">
+        <v>2.338663194569777</v>
+      </c>
+      <c r="H11">
+        <v>4.162762437701225</v>
+      </c>
+      <c r="I11">
+        <v>28.51080577894392</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4.781225410892471</v>
+      </c>
+      <c r="E12">
+        <v>17.07869827677633</v>
+      </c>
+      <c r="F12">
+        <v>2.07130665798894</v>
+      </c>
+      <c r="G12">
+        <v>4.703538044167771</v>
+      </c>
+      <c r="H12">
+        <v>5.035254667022397</v>
+      </c>
+      <c r="I12">
+        <v>32.74856778278264</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>8.037719389530727</v>
+      </c>
+      <c r="E13">
+        <v>16.85823630156387</v>
+      </c>
+      <c r="F13">
+        <v>1.408717526501416</v>
+      </c>
+      <c r="G13">
+        <v>6.665593445818632</v>
+      </c>
+      <c r="H13">
+        <v>5.029835408074702</v>
+      </c>
+      <c r="I13">
+        <v>36.67410174601253</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>2.426649842087992</v>
+      </c>
+      <c r="E14">
+        <v>16.83682316394562</v>
+      </c>
+      <c r="F14">
+        <v>3.464083433366674</v>
+      </c>
+      <c r="G14">
+        <v>2.190623222745673</v>
+      </c>
+      <c r="H14">
+        <v>4.1902047173714</v>
+      </c>
+      <c r="I14">
+        <v>27.87766252046676</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>3.655447213110451</v>
+      </c>
+      <c r="E15">
+        <v>17.77219854590365</v>
+      </c>
+      <c r="F15">
+        <v>2.480396242809285</v>
+      </c>
+      <c r="G15">
+        <v>3.981614824354693</v>
+      </c>
+      <c r="H15">
+        <v>5.027042212604391</v>
+      </c>
+      <c r="I15">
+        <v>31.74125036658546</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>6.318265528914798</v>
+      </c>
+      <c r="E16">
+        <v>17.90019264575791</v>
+      </c>
+      <c r="F16">
+        <v>1.652448821805546</v>
+      </c>
+      <c r="G16">
+        <v>6.057462218430542</v>
+      </c>
+      <c r="H16">
+        <v>5.597336473284937</v>
+      </c>
+      <c r="I16">
+        <v>35.81424394470272</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2.696225863399902</v>
+      </c>
+      <c r="E17">
+        <v>19.27184316446206</v>
+      </c>
+      <c r="F17">
+        <v>5.797027308261491</v>
+      </c>
+      <c r="G17">
+        <v>2.671676998660749</v>
+      </c>
+      <c r="H17">
+        <v>4.902543911030132</v>
+      </c>
+      <c r="I17">
+        <v>34.00974790203787</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>4.210976767920688</v>
+      </c>
+      <c r="E18">
+        <v>20.1238320443127</v>
+      </c>
+      <c r="F18">
+        <v>4.058968112643466</v>
+      </c>
+      <c r="G18">
+        <v>4.778223188515214</v>
+      </c>
+      <c r="H18">
+        <v>5.842405942618891</v>
+      </c>
+      <c r="I18">
+        <v>37.25126702898093</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>6.876662385734019</v>
+      </c>
+      <c r="E19">
+        <v>19.75848249460315</v>
+      </c>
+      <c r="F19">
+        <v>3.268332589978002</v>
+      </c>
+      <c r="G19">
+        <v>6.780096483709207</v>
+      </c>
+      <c r="H19">
+        <v>6.20096968838751</v>
+      </c>
+      <c r="I19">
+        <v>39.99817569783238</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_women.xlsx
+++ b/Results/results_women.xlsx
@@ -417,22 +417,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.115327478386055</v>
+        <v>3.126727639639817</v>
       </c>
       <c r="E2">
-        <v>15.62786685825717</v>
+        <v>15.71376447504604</v>
       </c>
       <c r="F2">
-        <v>4.681461897819724</v>
+        <v>4.683868230968296</v>
       </c>
       <c r="G2">
-        <v>2.174614859543087</v>
+        <v>2.174847090871369</v>
       </c>
       <c r="H2">
-        <v>4.005753056254401</v>
+        <v>4.004264539791402</v>
       </c>
       <c r="I2">
-        <v>29.60502415026043</v>
+        <v>29.70347197631693</v>
       </c>
     </row>
     <row r="3">
@@ -446,22 +446,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.595096905095732</v>
+        <v>4.607508742249112</v>
       </c>
       <c r="E3">
-        <v>16.94110661324449</v>
+        <v>17.02336361518467</v>
       </c>
       <c r="F3">
-        <v>2.730373150803114</v>
+        <v>2.73174378925405</v>
       </c>
       <c r="G3">
-        <v>3.702023253872185</v>
+        <v>3.703460721013627</v>
       </c>
       <c r="H3">
-        <v>5.291682920958127</v>
+        <v>5.294457214932095</v>
       </c>
       <c r="I3">
-        <v>33.26028284397365</v>
+        <v>33.36053408263356</v>
       </c>
     </row>
     <row r="4">
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.972284318536823</v>
+        <v>6.982998910689718</v>
       </c>
       <c r="E4">
-        <v>16.61157961441628</v>
+        <v>16.66694885321089</v>
       </c>
       <c r="F4">
-        <v>1.52272735420683</v>
+        <v>1.522827722617544</v>
       </c>
       <c r="G4">
-        <v>5.313798514909376</v>
+        <v>5.313902071137246</v>
       </c>
       <c r="H4">
-        <v>4.911020729923746</v>
+        <v>4.911879581979289</v>
       </c>
       <c r="I4">
-        <v>35.33141053199305</v>
+        <v>35.39855713963468</v>
       </c>
     </row>
     <row r="5">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.415296591702034</v>
+        <v>2.429401306928174</v>
       </c>
       <c r="E5">
-        <v>15.08506538079394</v>
+        <v>15.19347183851671</v>
       </c>
       <c r="F5">
-        <v>4.235479266309596</v>
+        <v>4.240711530503625</v>
       </c>
       <c r="G5">
-        <v>2.243389556692649</v>
+        <v>2.246796409486284</v>
       </c>
       <c r="H5">
-        <v>3.779884696623852</v>
+        <v>3.782206916045253</v>
       </c>
       <c r="I5">
-        <v>27.75911549212207</v>
+        <v>27.89258800148005</v>
       </c>
     </row>
     <row r="6">
@@ -533,22 +533,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.582649947404609</v>
+        <v>3.599117845760803</v>
       </c>
       <c r="E6">
-        <v>16.61795356902737</v>
+        <v>16.72209348321004</v>
       </c>
       <c r="F6">
-        <v>2.482123433280079</v>
+        <v>2.484675217299558</v>
       </c>
       <c r="G6">
-        <v>3.661216151341285</v>
+        <v>3.667347597035861</v>
       </c>
       <c r="H6">
-        <v>5.16288076347403</v>
+        <v>5.169671309641385</v>
       </c>
       <c r="I6">
-        <v>31.50682386452738</v>
+        <v>31.64290545294764</v>
       </c>
     </row>
     <row r="7">
@@ -562,22 +562,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5.476817394517049</v>
+        <v>5.493938731237336</v>
       </c>
       <c r="E7">
-        <v>16.54189931882775</v>
+        <v>16.61561167100538</v>
       </c>
       <c r="F7">
-        <v>1.25412205452607</v>
+        <v>1.254624821123822</v>
       </c>
       <c r="G7">
-        <v>5.287250213024302</v>
+        <v>5.293266175270305</v>
       </c>
       <c r="H7">
-        <v>5.05596378762338</v>
+        <v>5.059993936038957</v>
       </c>
       <c r="I7">
-        <v>33.61605276851855</v>
+        <v>33.7174353346758</v>
       </c>
     </row>
     <row r="8">
@@ -591,22 +591,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3.076416129232106</v>
+        <v>3.093666056652525</v>
       </c>
       <c r="E8">
-        <v>16.98266973004964</v>
+        <v>17.1388216782804</v>
       </c>
       <c r="F8">
-        <v>6.822096262047198</v>
+        <v>6.839104688408605</v>
       </c>
       <c r="G8">
-        <v>1.936969391556029</v>
+        <v>1.936333936718096</v>
       </c>
       <c r="H8">
-        <v>3.487593101590424</v>
+        <v>3.471518714968433</v>
       </c>
       <c r="I8">
-        <v>32.30574461447539</v>
+        <v>32.47944507502805</v>
       </c>
     </row>
     <row r="9">
@@ -620,22 +620,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4.547404816579863</v>
+        <v>4.56694953010873</v>
       </c>
       <c r="E9">
-        <v>18.32573470860556</v>
+        <v>18.47136037264173</v>
       </c>
       <c r="F9">
-        <v>4.062596000843285</v>
+        <v>4.072459079369249</v>
       </c>
       <c r="G9">
-        <v>3.550096499885488</v>
+        <v>3.55193180782137</v>
       </c>
       <c r="H9">
-        <v>5.094000715621373</v>
+        <v>5.082435921838586</v>
       </c>
       <c r="I9">
-        <v>35.57983274153557</v>
+        <v>35.74513671177967</v>
       </c>
     </row>
     <row r="10">
@@ -649,22 +649,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6.871602991599632</v>
+        <v>6.89256172910621</v>
       </c>
       <c r="E10">
-        <v>18.02560457231698</v>
+        <v>18.13833366042177</v>
       </c>
       <c r="F10">
-        <v>2.384958610283767</v>
+        <v>2.390347651175777</v>
       </c>
       <c r="G10">
-        <v>4.99972297594105</v>
+        <v>5.001044539014492</v>
       </c>
       <c r="H10">
-        <v>5.087472821131877</v>
+        <v>5.074985668165494</v>
       </c>
       <c r="I10">
-        <v>37.3693619712733</v>
+        <v>37.49727324788375</v>
       </c>
     </row>
     <row r="11">
@@ -678,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.856876053481502</v>
+        <v>2.863747510474244</v>
       </c>
       <c r="E11">
-        <v>15.99475780534661</v>
+        <v>16.05184538593965</v>
       </c>
       <c r="F11">
-        <v>2.983036743375374</v>
+        <v>2.982727538304824</v>
       </c>
       <c r="G11">
-        <v>2.060582933866771</v>
+        <v>2.062569546160608</v>
       </c>
       <c r="H11">
-        <v>3.761042362359078</v>
+        <v>3.76400593752221</v>
       </c>
       <c r="I11">
-        <v>27.65629589842933</v>
+        <v>27.72489591840154</v>
       </c>
     </row>
     <row r="12">
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.551260575015723</v>
+        <v>4.555794026899735</v>
       </c>
       <c r="E12">
-        <v>16.58924861724807</v>
+        <v>16.61608513964014</v>
       </c>
       <c r="F12">
-        <v>1.9174528300842</v>
+        <v>1.915614791382965</v>
       </c>
       <c r="G12">
-        <v>4.448593696555339</v>
+        <v>4.452583726898792</v>
       </c>
       <c r="H12">
-        <v>4.732935823992285</v>
+        <v>4.73644827531589</v>
       </c>
       <c r="I12">
-        <v>32.23949154289561</v>
+        <v>32.27652596013753</v>
       </c>
     </row>
     <row r="13">
@@ -736,22 +736,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.466097749517958</v>
+        <v>7.46989459548073</v>
       </c>
       <c r="E13">
-        <v>16.0532940120543</v>
+        <v>16.07314359573758</v>
       </c>
       <c r="F13">
-        <v>1.268761213881595</v>
+        <v>1.268235238521934</v>
       </c>
       <c r="G13">
-        <v>6.236365755699587</v>
+        <v>6.238083318465987</v>
       </c>
       <c r="H13">
-        <v>4.722728719562641</v>
+        <v>4.723558772943181</v>
       </c>
       <c r="I13">
-        <v>35.74724745071608</v>
+        <v>35.77291552114941</v>
       </c>
     </row>
     <row r="14">
@@ -765,22 +765,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.104121783230488</v>
+        <v>2.107827763243916</v>
       </c>
       <c r="E14">
-        <v>15.90202749634729</v>
+        <v>15.944296046413</v>
       </c>
       <c r="F14">
-        <v>3.126460462268325</v>
+        <v>3.127726182824361</v>
       </c>
       <c r="G14">
-        <v>1.916772692282413</v>
+        <v>1.91730971897614</v>
       </c>
       <c r="H14">
-        <v>3.798067013365765</v>
+        <v>3.799347997737064</v>
       </c>
       <c r="I14">
-        <v>26.84744944749428</v>
+        <v>26.89650770919448</v>
       </c>
     </row>
     <row r="15">
@@ -794,22 +794,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.399897883334825</v>
+        <v>3.401731282454485</v>
       </c>
       <c r="E15">
-        <v>17.04035089462599</v>
+        <v>17.05539887743983</v>
       </c>
       <c r="F15">
-        <v>2.264621829042625</v>
+        <v>2.264135140435045</v>
       </c>
       <c r="G15">
-        <v>3.706845291971502</v>
+        <v>3.708358503775517</v>
       </c>
       <c r="H15">
-        <v>4.626308863635138</v>
+        <v>4.627616591262299</v>
       </c>
       <c r="I15">
-        <v>31.03802476261008</v>
+        <v>31.05724039536717</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>5.691184032032656</v>
+        <v>5.692148078869407</v>
       </c>
       <c r="E16">
-        <v>16.79883013603082</v>
+        <v>16.80873891857452</v>
       </c>
       <c r="F16">
-        <v>1.43102263007646</v>
+        <v>1.431684117346036</v>
       </c>
       <c r="G16">
-        <v>5.503146618744387</v>
+        <v>5.502296211443839</v>
       </c>
       <c r="H16">
-        <v>5.148791326453422</v>
+        <v>5.148517922019868</v>
       </c>
       <c r="I16">
-        <v>34.57297474333775</v>
+        <v>34.58338524825366</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2.360242271884923</v>
+        <v>2.364264397264936</v>
       </c>
       <c r="E17">
-        <v>18.3280069622765</v>
+        <v>18.37955359123216</v>
       </c>
       <c r="F17">
-        <v>5.33969285847018</v>
+        <v>5.340443496978269</v>
       </c>
       <c r="G17">
-        <v>2.350184870678656</v>
+        <v>2.350632993818597</v>
       </c>
       <c r="H17">
-        <v>4.497599453682623</v>
+        <v>4.498664008715432</v>
       </c>
       <c r="I17">
-        <v>32.87572641699288</v>
+        <v>32.9335584880094</v>
       </c>
     </row>
     <row r="18">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3.67263348027768</v>
+        <v>3.675555840328689</v>
       </c>
       <c r="E18">
-        <v>19.21238855146239</v>
+        <v>19.23660430208323</v>
       </c>
       <c r="F18">
-        <v>3.71781798301622</v>
+        <v>3.716544505502305</v>
       </c>
       <c r="G18">
-        <v>4.242125157269574</v>
+        <v>4.243840134060201</v>
       </c>
       <c r="H18">
-        <v>5.334355454629261</v>
+        <v>5.335946353180591</v>
       </c>
       <c r="I18">
-        <v>36.17932062665512</v>
+        <v>36.20849113515502</v>
       </c>
     </row>
     <row r="19">
@@ -910,22 +910,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5.968463353582179</v>
+        <v>5.971205667235806</v>
       </c>
       <c r="E19">
-        <v>18.58012926599096</v>
+        <v>18.59796221858396</v>
       </c>
       <c r="F19">
-        <v>2.823647251696459</v>
+        <v>2.824762813413332</v>
       </c>
       <c r="G19">
-        <v>5.96742231772229</v>
+        <v>5.965990895261855</v>
       </c>
       <c r="H19">
-        <v>5.516640216181959</v>
+        <v>5.516092601324153</v>
       </c>
       <c r="I19">
-        <v>38.85630240517385</v>
+        <v>38.8760141958191</v>
       </c>
     </row>
   </sheetData>
@@ -999,22 +999,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.936615303629445</v>
+        <v>2.868374436884173</v>
       </c>
       <c r="E2">
-        <v>15.20833534361292</v>
+        <v>15.07684483749457</v>
       </c>
       <c r="F2">
-        <v>4.440747929509259</v>
+        <v>4.33038059715484</v>
       </c>
       <c r="G2">
-        <v>2.109685905547221</v>
+        <v>1.948298084382541</v>
       </c>
       <c r="H2">
-        <v>3.698573474756047</v>
+        <v>3.64881171445013</v>
       </c>
       <c r="I2">
-        <v>29.07560905393318</v>
+        <v>28.96121328875387</v>
       </c>
     </row>
     <row r="3">
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.42808865959771</v>
+        <v>4.390705032208864</v>
       </c>
       <c r="E3">
-        <v>16.62550309192848</v>
+        <v>16.57017061438977</v>
       </c>
       <c r="F3">
-        <v>2.767870471110802</v>
+        <v>2.556292710129264</v>
       </c>
       <c r="G3">
-        <v>3.485585714105953</v>
+        <v>3.482610054652606</v>
       </c>
       <c r="H3">
-        <v>5.153910037730334</v>
+        <v>5.06276082914526</v>
       </c>
       <c r="I3">
-        <v>32.92076590120087</v>
+        <v>32.82493660509611</v>
       </c>
     </row>
     <row r="4">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.426176658528934</v>
+        <v>6.460825858972321</v>
       </c>
       <c r="E4">
-        <v>15.70297235443716</v>
+        <v>15.77501327418411</v>
       </c>
       <c r="F4">
-        <v>1.263352302337635</v>
+        <v>1.306884192262857</v>
       </c>
       <c r="G4">
-        <v>5.103214142666239</v>
+        <v>4.957062520954254</v>
       </c>
       <c r="H4">
-        <v>4.538110589146984</v>
+        <v>4.555312488956508</v>
       </c>
       <c r="I4">
-        <v>34.32532890829315</v>
+        <v>34.46614686633342</v>
       </c>
     </row>
     <row r="5">
@@ -1086,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.24967238799085</v>
+        <v>2.168243099059924</v>
       </c>
       <c r="E5">
-        <v>14.66505178713793</v>
+        <v>14.29264347748428</v>
       </c>
       <c r="F5">
-        <v>3.951729682273303</v>
+        <v>3.857874162552539</v>
       </c>
       <c r="G5">
-        <v>2.008786767696882</v>
+        <v>1.944920868395361</v>
       </c>
       <c r="H5">
-        <v>3.220861577661694</v>
+        <v>3.394906907312597</v>
       </c>
       <c r="I5">
-        <v>27.18193409303008</v>
+        <v>26.87089768285261</v>
       </c>
     </row>
     <row r="6">
@@ -1115,22 +1115,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.393576014292707</v>
+        <v>3.248707625510336</v>
       </c>
       <c r="E6">
-        <v>16.40872701752438</v>
+        <v>15.835757307236</v>
       </c>
       <c r="F6">
-        <v>2.396157926288209</v>
+        <v>2.243981318835079</v>
       </c>
       <c r="G6">
-        <v>3.226816710156153</v>
+        <v>3.222175267974992</v>
       </c>
       <c r="H6">
-        <v>4.848262395041671</v>
+        <v>4.757274109170639</v>
       </c>
       <c r="I6">
-        <v>31.21987013412758</v>
+        <v>30.70344578917636</v>
       </c>
     </row>
     <row r="7">
@@ -1144,22 +1144,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5.070521781357547</v>
+        <v>4.873457077668331</v>
       </c>
       <c r="E7">
-        <v>15.77721994238274</v>
+        <v>15.55666145268136</v>
       </c>
       <c r="F7">
-        <v>1.07135614883601</v>
+        <v>1.040959806187892</v>
       </c>
       <c r="G7">
-        <v>4.9568614094843</v>
+        <v>4.673011605242973</v>
       </c>
       <c r="H7">
-        <v>4.696538970030105</v>
+        <v>4.595274948040895</v>
       </c>
       <c r="I7">
-        <v>32.94494254075277</v>
+        <v>32.60940103825577</v>
       </c>
     </row>
     <row r="8">
@@ -1173,22 +1173,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2.681109194625326</v>
+        <v>2.68097140531771</v>
       </c>
       <c r="E8">
-        <v>16.07454693020942</v>
+        <v>16.04447422958695</v>
       </c>
       <c r="F8">
-        <v>6.576971922354756</v>
+        <v>6.323122908112525</v>
       </c>
       <c r="G8">
-        <v>1.700990169140778</v>
+        <v>1.654179754350082</v>
       </c>
       <c r="H8">
-        <v>3.155211155372641</v>
+        <v>3.029246771286564</v>
       </c>
       <c r="I8">
-        <v>31.11737903899215</v>
+        <v>31.28490304631302</v>
       </c>
     </row>
     <row r="9">
@@ -1202,22 +1202,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4.092342382191604</v>
+        <v>3.922633989510214</v>
       </c>
       <c r="E9">
-        <v>17.39202831905189</v>
+        <v>17.33937464917557</v>
       </c>
       <c r="F9">
-        <v>3.839952584916026</v>
+        <v>3.612794561087035</v>
       </c>
       <c r="G9">
-        <v>3.046138410072857</v>
+        <v>3.056789258034441</v>
       </c>
       <c r="H9">
-        <v>4.96909218306559</v>
+        <v>4.495528493197416</v>
       </c>
       <c r="I9">
-        <v>34.27687529112461</v>
+        <v>34.55968568838138</v>
       </c>
     </row>
     <row r="10">
@@ -1231,22 +1231,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6.005698410648863</v>
+        <v>5.923253079093209</v>
       </c>
       <c r="E10">
-        <v>16.67410702931389</v>
+        <v>16.88607481834845</v>
       </c>
       <c r="F10">
-        <v>2.147830587127172</v>
+        <v>1.930610294601476</v>
       </c>
       <c r="G10">
-        <v>4.515153546912642</v>
+        <v>4.28323016412274</v>
       </c>
       <c r="H10">
-        <v>4.622351612994075</v>
+        <v>4.309191586602141</v>
       </c>
       <c r="I10">
-        <v>35.20168500723922</v>
+        <v>36.15536652694587</v>
       </c>
     </row>
     <row r="11">
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.775581095509359</v>
+        <v>2.542773449784796</v>
       </c>
       <c r="E11">
-        <v>15.81917178786863</v>
+        <v>15.33649569059478</v>
       </c>
       <c r="F11">
-        <v>2.836890458643092</v>
+        <v>2.699937095361963</v>
       </c>
       <c r="G11">
-        <v>1.727364079828889</v>
+        <v>1.78170737467581</v>
       </c>
       <c r="H11">
-        <v>3.250766612308974</v>
+        <v>3.390324037036189</v>
       </c>
       <c r="I11">
-        <v>27.25263255809003</v>
+        <v>26.85849112512093</v>
       </c>
     </row>
     <row r="12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.466267618513619</v>
+        <v>4.312483440260916</v>
       </c>
       <c r="E12">
-        <v>16.42849137170554</v>
+        <v>16.15679440992412</v>
       </c>
       <c r="F12">
-        <v>1.870696947442005</v>
+        <v>1.769086427527834</v>
       </c>
       <c r="G12">
-        <v>4.170663466518325</v>
+        <v>4.15685142254518</v>
       </c>
       <c r="H12">
-        <v>4.542955373669891</v>
+        <v>4.4579915739621</v>
       </c>
       <c r="I12">
-        <v>31.91823352963208</v>
+        <v>31.76989848162127</v>
       </c>
     </row>
     <row r="13">
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.023934137648831</v>
+        <v>6.989700732697267</v>
       </c>
       <c r="E13">
-        <v>15.72978036155535</v>
+        <v>15.27625974915863</v>
       </c>
       <c r="F13">
-        <v>1.174337515057906</v>
+        <v>1.113799458075439</v>
       </c>
       <c r="G13">
-        <v>6.020952236567446</v>
+        <v>5.829195752660999</v>
       </c>
       <c r="H13">
-        <v>4.461200950623813</v>
+        <v>4.371895371998946</v>
       </c>
       <c r="I13">
-        <v>35.21193444225715</v>
+        <v>35.05317315810703</v>
       </c>
     </row>
     <row r="14">
@@ -1347,22 +1347,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.072397727636277</v>
+        <v>1.845787096915397</v>
       </c>
       <c r="E14">
-        <v>15.73835309007021</v>
+        <v>15.03997152503347</v>
       </c>
       <c r="F14">
-        <v>2.837805229022019</v>
+        <v>2.820389570656618</v>
       </c>
       <c r="G14">
-        <v>1.670831944785072</v>
+        <v>1.648123692760789</v>
       </c>
       <c r="H14">
-        <v>3.329098764718181</v>
+        <v>3.307904390657929</v>
       </c>
       <c r="I14">
-        <v>26.77612901829092</v>
+        <v>26.00875618095919</v>
       </c>
     </row>
     <row r="15">
@@ -1376,22 +1376,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.218715701162728</v>
+        <v>3.082343069576286</v>
       </c>
       <c r="E15">
-        <v>16.49246552120398</v>
+        <v>16.25359028504968</v>
       </c>
       <c r="F15">
-        <v>2.228545680116702</v>
+        <v>2.055348098310586</v>
       </c>
       <c r="G15">
-        <v>3.450106371362335</v>
+        <v>3.392033751770245</v>
       </c>
       <c r="H15">
-        <v>4.377037116817099</v>
+        <v>4.29562758869055</v>
       </c>
       <c r="I15">
-        <v>30.78869930575385</v>
+        <v>30.1448651096015</v>
       </c>
     </row>
     <row r="16">
@@ -1405,22 +1405,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>5.202250465021582</v>
+        <v>5.07905573659841</v>
       </c>
       <c r="E16">
-        <v>16.30199453400095</v>
+        <v>15.69129968738708</v>
       </c>
       <c r="F16">
-        <v>1.220109543144288</v>
+        <v>1.238919838390332</v>
       </c>
       <c r="G16">
-        <v>5.048059175989129</v>
+        <v>4.987035540669607</v>
       </c>
       <c r="H16">
-        <v>4.762454380955979</v>
+        <v>4.657386504947488</v>
       </c>
       <c r="I16">
-        <v>34.37662565979944</v>
+        <v>33.58686590117605</v>
       </c>
     </row>
     <row r="17">
@@ -1434,22 +1434,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2.073993144778563</v>
+        <v>2.054727904909592</v>
       </c>
       <c r="E17">
-        <v>17.17857864287926</v>
+        <v>17.3245294046811</v>
       </c>
       <c r="F17">
-        <v>5.054600873648926</v>
+        <v>4.923029262265839</v>
       </c>
       <c r="G17">
-        <v>2.040558059418899</v>
+        <v>2.010201690955593</v>
       </c>
       <c r="H17">
-        <v>4.176642774640557</v>
+        <v>4.049219183910973</v>
       </c>
       <c r="I17">
-        <v>31.80465049921903</v>
+        <v>31.82187929962409</v>
       </c>
     </row>
     <row r="18">
@@ -1463,22 +1463,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3.194218517665525</v>
+        <v>3.143827970588303</v>
       </c>
       <c r="E18">
-        <v>18.06270792781318</v>
+        <v>18.22674778459954</v>
       </c>
       <c r="F18">
-        <v>3.55872207284489</v>
+        <v>3.368704786664344</v>
       </c>
       <c r="G18">
-        <v>4.106163814556492</v>
+        <v>3.823381098145879</v>
       </c>
       <c r="H18">
-        <v>5.028760655723754</v>
+        <v>4.875990274166734</v>
       </c>
       <c r="I18">
-        <v>34.67649497807411</v>
+        <v>35.14700247288944</v>
       </c>
     </row>
     <row r="19">
@@ -1492,22 +1492,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5.072245231440442</v>
+        <v>5.200427411745116</v>
       </c>
       <c r="E19">
-        <v>18.11120437067992</v>
+        <v>17.28911058940348</v>
       </c>
       <c r="F19">
-        <v>2.676353900944256</v>
+        <v>2.420996240972151</v>
       </c>
       <c r="G19">
-        <v>5.517619283748964</v>
+        <v>5.26246536428605</v>
       </c>
       <c r="H19">
-        <v>5.097767905326847</v>
+        <v>4.877364332170632</v>
       </c>
       <c r="I19">
-        <v>37.41788220536353</v>
+        <v>37.64761195974607</v>
       </c>
     </row>
   </sheetData>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.288992847377674</v>
+        <v>3.37979778107612</v>
       </c>
       <c r="E2">
-        <v>16.06380507793919</v>
+        <v>16.28211508454976</v>
       </c>
       <c r="F2">
-        <v>4.95950264442414</v>
+        <v>5.023130845356087</v>
       </c>
       <c r="G2">
-        <v>2.366861581129418</v>
+        <v>2.438034424891184</v>
       </c>
       <c r="H2">
-        <v>4.20292885028937</v>
+        <v>4.357332758877099</v>
       </c>
       <c r="I2">
-        <v>29.88218704673336</v>
+        <v>30.40828278284453</v>
       </c>
     </row>
     <row r="3">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.736905700291334</v>
+        <v>4.828731309038707</v>
       </c>
       <c r="E3">
-        <v>17.22530064206876</v>
+        <v>17.48230077558188</v>
       </c>
       <c r="F3">
-        <v>2.89380473197458</v>
+        <v>2.899825055603594</v>
       </c>
       <c r="G3">
-        <v>3.835843019474376</v>
+        <v>3.913885440307859</v>
       </c>
       <c r="H3">
-        <v>5.398395835124386</v>
+        <v>5.540669032094259</v>
       </c>
       <c r="I3">
-        <v>33.6136028855058</v>
+        <v>33.84905402357866</v>
       </c>
     </row>
     <row r="4">
@@ -1639,22 +1639,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.374883020132383</v>
+        <v>7.603076959705105</v>
       </c>
       <c r="E4">
-        <v>17.31836127126851</v>
+        <v>17.58546364309544</v>
       </c>
       <c r="F4">
-        <v>1.825082079301763</v>
+        <v>1.752072058465663</v>
       </c>
       <c r="G4">
-        <v>5.742366726094695</v>
+        <v>5.718820616806436</v>
       </c>
       <c r="H4">
-        <v>5.251357103539264</v>
+        <v>5.26821361831289</v>
       </c>
       <c r="I4">
-        <v>35.9553942748601</v>
+        <v>36.3777654612087</v>
       </c>
     </row>
     <row r="5">
@@ -1668,22 +1668,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.685803183573659</v>
+        <v>2.702097486996754</v>
       </c>
       <c r="E5">
-        <v>15.71917474844529</v>
+        <v>16.0517795383656</v>
       </c>
       <c r="F5">
-        <v>4.570525383765524</v>
+        <v>4.661163585036874</v>
       </c>
       <c r="G5">
-        <v>2.502376905193523</v>
+        <v>2.569570914661318</v>
       </c>
       <c r="H5">
-        <v>4.037191326434906</v>
+        <v>4.180100776840535</v>
       </c>
       <c r="I5">
-        <v>28.39225071258114</v>
+        <v>28.8979039796813</v>
       </c>
     </row>
     <row r="6">
@@ -1697,22 +1697,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4.259361704602908</v>
+        <v>4.024303002133146</v>
       </c>
       <c r="E6">
-        <v>17.21844421401762</v>
+        <v>17.62373551340971</v>
       </c>
       <c r="F6">
-        <v>2.748503176824346</v>
+        <v>2.766604475993881</v>
       </c>
       <c r="G6">
-        <v>3.763622548454393</v>
+        <v>4.059170952216656</v>
       </c>
       <c r="H6">
-        <v>5.433749681326118</v>
+        <v>5.558082628992574</v>
       </c>
       <c r="I6">
-        <v>32.13169628732589</v>
+        <v>32.62377925831176</v>
       </c>
     </row>
     <row r="7">
@@ -1726,22 +1726,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6.14868292859546</v>
+        <v>6.237441525536267</v>
       </c>
       <c r="E7">
-        <v>17.46977054901828</v>
+        <v>17.7238486743347</v>
       </c>
       <c r="F7">
-        <v>1.555610070986924</v>
+        <v>1.474833902451912</v>
       </c>
       <c r="G7">
-        <v>5.839142081185436</v>
+        <v>5.895621233279283</v>
       </c>
       <c r="H7">
-        <v>5.365201268373799</v>
+        <v>5.565218471636783</v>
       </c>
       <c r="I7">
-        <v>34.46921593900662</v>
+        <v>35.01667815019489</v>
       </c>
     </row>
     <row r="8">
@@ -1755,22 +1755,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3.099117846543129</v>
+        <v>3.543653841471217</v>
       </c>
       <c r="E8">
-        <v>17.94126833625013</v>
+        <v>18.32006806465908</v>
       </c>
       <c r="F8">
-        <v>7.263140308427452</v>
+        <v>7.362349578314527</v>
       </c>
       <c r="G8">
-        <v>2.178994870122572</v>
+        <v>2.267008365447753</v>
       </c>
       <c r="H8">
-        <v>3.668011695869406</v>
+        <v>3.917909512943433</v>
       </c>
       <c r="I8">
-        <v>33.27721117900181</v>
+        <v>33.82684002298353</v>
       </c>
     </row>
     <row r="9">
@@ -1784,22 +1784,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4.574472007681088</v>
+        <v>5.244621402595715</v>
       </c>
       <c r="E9">
-        <v>19.5325840276836</v>
+        <v>19.7041307838272</v>
       </c>
       <c r="F9">
-        <v>4.563183380632086</v>
+        <v>4.542654083324228</v>
       </c>
       <c r="G9">
-        <v>3.83021457134</v>
+        <v>4.085763856374919</v>
       </c>
       <c r="H9">
-        <v>5.433113799332647</v>
+        <v>5.673026621005853</v>
       </c>
       <c r="I9">
-        <v>36.57869161460039</v>
+        <v>36.97054314425694</v>
       </c>
     </row>
     <row r="10">
@@ -1813,22 +1813,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7.289520863218384</v>
+        <v>8.011684610658905</v>
       </c>
       <c r="E10">
-        <v>19.06136822052882</v>
+        <v>19.51718831253731</v>
       </c>
       <c r="F10">
-        <v>3.10053501022117</v>
+        <v>2.904791998932438</v>
       </c>
       <c r="G10">
-        <v>5.722769482193415</v>
+        <v>5.857569412307345</v>
       </c>
       <c r="H10">
-        <v>5.508653365943064</v>
+        <v>5.888227158096417</v>
       </c>
       <c r="I10">
-        <v>38.41346239395336</v>
+        <v>38.88082349472067</v>
       </c>
     </row>
     <row r="11">
@@ -1842,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.064284068267578</v>
+        <v>3.203371858402962</v>
       </c>
       <c r="E11">
-        <v>17.09743095058569</v>
+        <v>16.86775722733922</v>
       </c>
       <c r="F11">
-        <v>3.411201250314331</v>
+        <v>3.302854499491697</v>
       </c>
       <c r="G11">
-        <v>2.42107796812394</v>
+        <v>2.398743406498482</v>
       </c>
       <c r="H11">
-        <v>4.109046162333491</v>
+        <v>4.185957564331019</v>
       </c>
       <c r="I11">
-        <v>29.36892712051635</v>
+        <v>28.68930302919996</v>
       </c>
     </row>
     <row r="12">
@@ -1871,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.847380103244641</v>
+        <v>4.807909622155046</v>
       </c>
       <c r="E12">
-        <v>16.94418921512677</v>
+        <v>17.13628169453127</v>
       </c>
       <c r="F12">
-        <v>2.099794772022827</v>
+        <v>2.074228470714833</v>
       </c>
       <c r="G12">
-        <v>4.742476290366547</v>
+        <v>4.722954380292572</v>
       </c>
       <c r="H12">
-        <v>4.847692206468732</v>
+        <v>5.012301506651419</v>
       </c>
       <c r="I12">
-        <v>32.664215817807</v>
+        <v>32.86411560702609</v>
       </c>
     </row>
     <row r="13">
@@ -1900,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.760670281688141</v>
+        <v>7.995907967234277</v>
       </c>
       <c r="E13">
-        <v>16.62591418478895</v>
+        <v>16.72578829683484</v>
       </c>
       <c r="F13">
-        <v>1.377379279560704</v>
+        <v>1.433607663831309</v>
       </c>
       <c r="G13">
-        <v>6.41655801647463</v>
+        <v>6.671115496015259</v>
       </c>
       <c r="H13">
-        <v>4.961852365921392</v>
+        <v>5.054986624941725</v>
       </c>
       <c r="I13">
-        <v>35.95984921187858</v>
+        <v>36.51607095311026</v>
       </c>
     </row>
     <row r="14">
@@ -1929,22 +1929,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.429289753634291</v>
+        <v>2.384940804196489</v>
       </c>
       <c r="E14">
-        <v>16.75692932672726</v>
+        <v>16.802383449044</v>
       </c>
       <c r="F14">
-        <v>3.328816435921218</v>
+        <v>3.514606395313389</v>
       </c>
       <c r="G14">
-        <v>2.143757849836551</v>
+        <v>2.230202573346022</v>
       </c>
       <c r="H14">
-        <v>4.14671546674473</v>
+        <v>4.268283073933128</v>
       </c>
       <c r="I14">
-        <v>28.16130346846247</v>
+        <v>27.85796932897503</v>
       </c>
     </row>
     <row r="15">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.815015033359313</v>
+        <v>3.724403622531161</v>
       </c>
       <c r="E15">
-        <v>17.66305482567709</v>
+        <v>17.97929900356866</v>
       </c>
       <c r="F15">
-        <v>2.426475429233402</v>
+        <v>2.467431902138089</v>
       </c>
       <c r="G15">
-        <v>3.887256115964163</v>
+        <v>4.05291361685136</v>
       </c>
       <c r="H15">
-        <v>4.807812741097688</v>
+        <v>4.983248440455149</v>
       </c>
       <c r="I15">
-        <v>31.85257482395341</v>
+        <v>31.97114132656694</v>
       </c>
     </row>
     <row r="16">
@@ -1987,22 +1987,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>6.255383281914197</v>
+        <v>6.309179310398731</v>
       </c>
       <c r="E16">
-        <v>17.39600350503859</v>
+        <v>17.84936992038666</v>
       </c>
       <c r="F16">
-        <v>1.736600288533015</v>
+        <v>1.649030566588229</v>
       </c>
       <c r="G16">
-        <v>6.150083626632801</v>
+        <v>6.039889122605246</v>
       </c>
       <c r="H16">
-        <v>5.598685466895792</v>
+        <v>5.624129931812144</v>
       </c>
       <c r="I16">
-        <v>35.31032431949058</v>
+        <v>35.59762004622804</v>
       </c>
     </row>
     <row r="17">
@@ -2016,22 +2016,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2.508387298803783</v>
+        <v>2.702398544770324</v>
       </c>
       <c r="E17">
-        <v>19.29534917535112</v>
+        <v>19.35080725575943</v>
       </c>
       <c r="F17">
-        <v>5.575905927750191</v>
+        <v>5.762012819219005</v>
       </c>
       <c r="G17">
-        <v>2.656187027827149</v>
+        <v>2.741947971189568</v>
       </c>
       <c r="H17">
-        <v>5.035376409858545</v>
+        <v>4.945473815082755</v>
       </c>
       <c r="I17">
-        <v>33.80356595135694</v>
+        <v>33.97139965984972</v>
       </c>
     </row>
     <row r="18">
@@ -2045,22 +2045,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3.84836982368204</v>
+        <v>4.198640714950782</v>
       </c>
       <c r="E18">
-        <v>20.32074700088143</v>
+        <v>20.29585627334139</v>
       </c>
       <c r="F18">
-        <v>4.141543371000727</v>
+        <v>4.085771828389408</v>
       </c>
       <c r="G18">
-        <v>4.415856693082257</v>
+        <v>4.713188340465976</v>
       </c>
       <c r="H18">
-        <v>5.525323762016064</v>
+        <v>5.843968612177418</v>
       </c>
       <c r="I18">
-        <v>37.31101455499046</v>
+        <v>37.35864873568042</v>
       </c>
     </row>
     <row r="19">
@@ -2074,22 +2074,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>6.26290995154972</v>
+        <v>6.946289147261147</v>
       </c>
       <c r="E19">
-        <v>19.60711651756187</v>
+        <v>19.71655024401039</v>
       </c>
       <c r="F19">
-        <v>3.102220155343129</v>
+        <v>3.292629616875997</v>
       </c>
       <c r="G19">
-        <v>6.368236822692515</v>
+        <v>6.746516325091571</v>
       </c>
       <c r="H19">
-        <v>5.849678011919918</v>
+        <v>6.15113105164557</v>
       </c>
       <c r="I19">
-        <v>39.43798315618341</v>
+        <v>39.96467734724007</v>
       </c>
     </row>
   </sheetData>
